--- a/ClassificationFiles/C000-LSN-XX-XX-DB-Q-000001-Uniformat.xlsx
+++ b/ClassificationFiles/C000-LSN-XX-XX-DB-Q-000001-Uniformat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrese\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrese\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D755E6-E17F-44A5-9DBF-4FC44292B1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDA1F24-6959-4ADD-9B08-EDBBC39257AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15350,8 +15350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B2D4F2-8E9B-40CA-93EB-DF31B4424C8D}">
   <dimension ref="A1:D653"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A502" workbookViewId="0">
-      <selection activeCell="E522" sqref="E522"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24053,15 +24053,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="fe512485-8a81-44ad-87d3-aeb711ac61f7">
@@ -24075,7 +24066,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F3C36D5EF35CE543BEB87F6B97BE13FA" ma:contentTypeVersion="13" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="5370568ea64e8fbb951ba4da8ac89701">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f9d9473a-d0ae-4064-bbe2-a5633f5e3bad" xmlns:ns3="fe512485-8a81-44ad-87d3-aeb711ac61f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="baad9644e087ade56c5c2930e2ea9127" ns2:_="" ns3:_="">
     <xsd:import namespace="f9d9473a-d0ae-4064-bbe2-a5633f5e3bad"/>
@@ -24298,15 +24289,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D4A198A-1BD3-4CD9-9C90-6F7A9C3793E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E57F15C-CD1F-49DD-B16D-856D7452E0B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -24316,7 +24308,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{355A8407-2007-49DF-A9CB-B9B759E4AB25}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24333,4 +24325,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D4A198A-1BD3-4CD9-9C90-6F7A9C3793E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>